--- a/Bimestre7/Series_de_tiempo/TareaFinal/Arribos_oficina_atencion.xlsx
+++ b/Bimestre7/Series_de_tiempo/TareaFinal/Arribos_oficina_atencion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://proteccion-my.sharepoint.com/personal/jbejaran_proteccion_com_co/Documents/Universidad Catolica/Universidad/Bimestre7/Bimestre7/Series_de_tiempo/TareaFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FF73EA5E-3332-42E3-A0FD-5DF926F482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1519A5F-3D9D-48CF-994C-EBB4A79B109F}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{FF73EA5E-3332-42E3-A0FD-5DF926F482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AE380E-588A-4AA8-8DE5-F33510DACB7E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98919B19-5C4E-4798-B246-1E9DD96EDBB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="6">
   <si>
     <t>oficina</t>
   </si>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F0B8F-286F-408E-A5AE-0C713931104E}">
-  <dimension ref="A1:G399"/>
+  <dimension ref="A1:G419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G419" sqref="G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,16 +443,14 @@
         <v>2020</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -462,13 +460,13 @@
         <v>2020</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -481,13 +479,13 @@
         <v>2020</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
         <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -500,13 +498,13 @@
         <v>2020</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -519,14 +517,15 @@
         <v>2020</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -537,15 +536,14 @@
         <v>2020</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -556,15 +554,16 @@
         <v>2020</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -577,13 +576,12 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -596,10 +594,10 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -614,13 +612,12 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -633,13 +630,12 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -649,16 +645,15 @@
         <v>2020</v>
       </c>
       <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -668,13 +663,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -687,16 +682,15 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -706,13 +700,13 @@
         <v>2020</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -725,13 +719,13 @@
         <v>2020</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -747,10 +741,10 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -763,13 +757,13 @@
         <v>2020</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -782,13 +776,13 @@
         <v>2020</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -801,13 +795,13 @@
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -820,13 +814,13 @@
         <v>2020</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -839,13 +833,13 @@
         <v>2020</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -861,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E24">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -880,10 +874,10 @@
         <v>9</v>
       </c>
       <c r="D25">
-        <v>13</v>
-      </c>
-      <c r="E25">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>36</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -899,10 +893,10 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E26" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -918,10 +912,10 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -937,10 +931,10 @@
         <v>9</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -956,10 +950,10 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <v>17</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -972,13 +966,13 @@
         <v>2020</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -991,13 +985,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="E31" s="1">
+        <v>21</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1010,13 +1004,13 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1029,13 +1023,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1048,13 +1042,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1070,10 +1064,10 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>12</v>
-      </c>
-      <c r="E35" s="1">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1089,10 +1083,10 @@
         <v>10</v>
       </c>
       <c r="D36">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1108,11 +1102,13 @@
         <v>10</v>
       </c>
       <c r="D37">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
+        <v>19</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -1125,10 +1121,10 @@
         <v>10</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1144,10 +1140,10 @@
         <v>10</v>
       </c>
       <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
         <v>16</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1163,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1179,13 +1175,13 @@
         <v>2020</v>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1198,16 +1194,14 @@
         <v>2020</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1">
-        <v>24</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -1217,15 +1211,16 @@
         <v>2020</v>
       </c>
       <c r="C43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E43" s="1">
+        <v>17</v>
       </c>
       <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -1235,13 +1230,13 @@
         <v>2020</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1254,13 +1249,13 @@
         <v>2020</v>
       </c>
       <c r="C45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1276,10 +1271,10 @@
         <v>11</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E46" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1295,10 +1290,10 @@
         <v>11</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1314,13 +1309,12 @@
         <v>11</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
@@ -1333,10 +1327,10 @@
         <v>11</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E49" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1352,10 +1346,10 @@
         <v>11</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1368,13 +1362,13 @@
         <v>2020</v>
       </c>
       <c r="C51">
+        <v>11</v>
+      </c>
+      <c r="D51">
         <v>12</v>
       </c>
-      <c r="D51">
-        <v>7</v>
-      </c>
       <c r="E51" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1387,13 +1381,13 @@
         <v>2020</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1406,12 +1400,12 @@
         <v>2020</v>
       </c>
       <c r="C53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>9</v>
-      </c>
-      <c r="E53" s="1">
+        <v>14</v>
+      </c>
+      <c r="E53">
         <v>16</v>
       </c>
       <c r="F53" s="1"/>
@@ -1425,13 +1419,13 @@
         <v>2020</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E54" s="1">
+        <v>15</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1444,13 +1438,13 @@
         <v>2020</v>
       </c>
       <c r="C55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1463,13 +1457,13 @@
         <v>2020</v>
       </c>
       <c r="C56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1485,10 +1479,10 @@
         <v>12</v>
       </c>
       <c r="D57">
-        <v>13</v>
-      </c>
-      <c r="E57">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="E57" s="1">
+        <v>3</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1504,10 +1498,10 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <v>14</v>
-      </c>
-      <c r="E58">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>21</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1523,11 +1517,13 @@
         <v>12</v>
       </c>
       <c r="D59">
-        <v>15</v>
-      </c>
-      <c r="E59">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E59" s="1">
+        <v>16</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -1540,11 +1536,12 @@
         <v>12</v>
       </c>
       <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60">
         <v>16</v>
       </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -1558,11 +1555,12 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E61">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -1570,16 +1568,16 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1589,16 +1587,16 @@
         <v>4</v>
       </c>
       <c r="B63">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D63">
-        <v>8</v>
-      </c>
-      <c r="E63" s="1">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1608,16 +1606,16 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1627,35 +1625,33 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>16</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1"/>
     </row>
@@ -1664,17 +1660,18 @@
         <v>4</v>
       </c>
       <c r="B67">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+      <c r="E67">
         <v>1</v>
       </c>
-      <c r="D67">
-        <v>12</v>
-      </c>
-      <c r="E67">
-        <v>13</v>
-      </c>
+      <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -1687,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1706,11 +1703,12 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>14</v>
-      </c>
-      <c r="E69">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E69" s="1">
+        <v>21</v>
+      </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -1724,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -1743,12 +1741,13 @@
         <v>1</v>
       </c>
       <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
         <v>16</v>
       </c>
-      <c r="E71">
-        <v>4</v>
-      </c>
       <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
@@ -1761,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="D72">
+        <v>11</v>
+      </c>
+      <c r="E72">
         <v>17</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
       </c>
       <c r="G72" s="1"/>
     </row>
@@ -1776,15 +1775,14 @@
         <v>2021</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73" s="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
@@ -1794,13 +1792,13 @@
         <v>2021</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -1813,15 +1811,14 @@
         <v>2021</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E75">
-        <v>20</v>
-      </c>
-      <c r="F75" s="1"/>
+        <v>14</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -1832,13 +1829,13 @@
         <v>2021</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -1851,16 +1848,15 @@
         <v>2021</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
@@ -1870,15 +1866,14 @@
         <v>2021</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>12</v>
-      </c>
-      <c r="E78" s="1">
         <v>17</v>
       </c>
-      <c r="F78" s="1"/>
+      <c r="E78">
+        <v>1</v>
+      </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -1892,13 +1887,12 @@
         <v>2</v>
       </c>
       <c r="D79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
@@ -1911,10 +1905,10 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>14</v>
-      </c>
-      <c r="E80">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="E80" s="1">
+        <v>32</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -1930,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>15</v>
-      </c>
-      <c r="E81" s="1">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -1949,10 +1943,10 @@
         <v>2</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -1965,13 +1959,13 @@
         <v>2021</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -1984,13 +1978,13 @@
         <v>2021</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="E84" s="1">
+        <v>17</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -2003,13 +1997,13 @@
         <v>2021</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>9</v>
-      </c>
-      <c r="E85" s="1">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <v>17</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -2022,13 +2016,13 @@
         <v>2021</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>10</v>
-      </c>
-      <c r="E86" s="1">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>19</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -2041,13 +2035,13 @@
         <v>2021</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>11</v>
-      </c>
-      <c r="E87">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="E87" s="1">
+        <v>25</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -2060,13 +2054,13 @@
         <v>2021</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>12</v>
-      </c>
-      <c r="E88" s="1">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -2079,13 +2073,13 @@
         <v>2021</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E89">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -2101,10 +2095,10 @@
         <v>3</v>
       </c>
       <c r="D90">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -2120,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="D91">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -2139,10 +2133,10 @@
         <v>3</v>
       </c>
       <c r="D92">
-        <v>16</v>
-      </c>
-      <c r="E92">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="E92" s="1">
+        <v>24</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -2158,10 +2152,10 @@
         <v>3</v>
       </c>
       <c r="D93">
-        <v>17</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E93" s="1">
+        <v>24</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2174,13 +2168,13 @@
         <v>2021</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -2193,13 +2187,13 @@
         <v>2021</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>8</v>
-      </c>
-      <c r="E95">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="E95" s="1">
+        <v>18</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -2212,13 +2206,13 @@
         <v>2021</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -2231,13 +2225,13 @@
         <v>2021</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -2250,13 +2244,13 @@
         <v>2021</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>11</v>
-      </c>
-      <c r="E98" s="1">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>24</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2269,13 +2263,13 @@
         <v>2021</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E99">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2288,13 +2282,13 @@
         <v>2021</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>13</v>
-      </c>
-      <c r="E100" s="1">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2310,10 +2304,10 @@
         <v>4</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E101">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2329,10 +2323,10 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -2348,11 +2342,12 @@
         <v>4</v>
       </c>
       <c r="D103">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -2363,13 +2358,13 @@
         <v>2021</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>7</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E104" s="1">
+        <v>15</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -2382,13 +2377,13 @@
         <v>2021</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>8</v>
-      </c>
-      <c r="E105">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E105" s="1">
+        <v>12</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -2401,13 +2396,13 @@
         <v>2021</v>
       </c>
       <c r="C106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E106">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -2420,13 +2415,13 @@
         <v>2021</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>10</v>
-      </c>
-      <c r="E107">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="E107" s="1">
+        <v>11</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -2439,13 +2434,13 @@
         <v>2021</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -2458,13 +2453,13 @@
         <v>2021</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109">
-        <v>12</v>
-      </c>
-      <c r="E109" s="1">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="E109">
+        <v>14</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -2477,15 +2472,14 @@
         <v>2021</v>
       </c>
       <c r="C110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>13</v>
-      </c>
-      <c r="E110" s="1">
-        <v>10</v>
-      </c>
-      <c r="F110" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -2496,15 +2490,14 @@
         <v>2021</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E111">
-        <v>13</v>
-      </c>
-      <c r="F111" s="1"/>
+        <v>0</v>
+      </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -2518,10 +2511,10 @@
         <v>5</v>
       </c>
       <c r="D112">
-        <v>15</v>
-      </c>
-      <c r="E112" s="1">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -2537,10 +2530,10 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -2556,10 +2549,10 @@
         <v>5</v>
       </c>
       <c r="D114">
-        <v>17</v>
-      </c>
-      <c r="E114" s="1">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E114">
+        <v>22</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -2572,13 +2565,13 @@
         <v>2021</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -2591,13 +2584,13 @@
         <v>2021</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E116">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -2610,13 +2603,13 @@
         <v>2021</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E117" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -2629,13 +2622,13 @@
         <v>2021</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118">
+        <v>13</v>
+      </c>
+      <c r="E118" s="1">
         <v>10</v>
-      </c>
-      <c r="E118" s="1">
-        <v>14</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -2648,13 +2641,13 @@
         <v>2021</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E119">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -2667,13 +2660,13 @@
         <v>2021</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120">
-        <v>12</v>
-      </c>
-      <c r="E120">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E120" s="1">
+        <v>13</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -2686,13 +2679,13 @@
         <v>2021</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121">
-        <v>13</v>
-      </c>
-      <c r="E121" s="1">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -2705,13 +2698,13 @@
         <v>2021</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E122" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -2727,10 +2720,10 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -2746,10 +2739,10 @@
         <v>6</v>
       </c>
       <c r="D124">
-        <v>16</v>
-      </c>
-      <c r="E124" s="1">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E124">
+        <v>28</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -2765,10 +2758,10 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E125" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -2781,13 +2774,13 @@
         <v>2021</v>
       </c>
       <c r="C126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E126" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -2800,13 +2793,13 @@
         <v>2021</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -2819,13 +2812,13 @@
         <v>2021</v>
       </c>
       <c r="C128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -2838,13 +2831,13 @@
         <v>2021</v>
       </c>
       <c r="C129">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129">
-        <v>10</v>
-      </c>
-      <c r="E129">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="E129" s="1">
+        <v>13</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -2857,13 +2850,13 @@
         <v>2021</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E130" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -2876,13 +2869,13 @@
         <v>2021</v>
       </c>
       <c r="C131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E131">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -2895,13 +2888,13 @@
         <v>2021</v>
       </c>
       <c r="C132">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>13</v>
-      </c>
-      <c r="E132">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E132" s="1">
+        <v>3</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -2914,13 +2907,13 @@
         <v>2021</v>
       </c>
       <c r="C133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D133">
-        <v>14</v>
-      </c>
-      <c r="E133">
         <v>17</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -2936,10 +2929,10 @@
         <v>7</v>
       </c>
       <c r="D134">
-        <v>15</v>
-      </c>
-      <c r="E134">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -2955,10 +2948,10 @@
         <v>7</v>
       </c>
       <c r="D135">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -2974,10 +2967,10 @@
         <v>7</v>
       </c>
       <c r="D136">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -2990,13 +2983,13 @@
         <v>2021</v>
       </c>
       <c r="C137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D137">
-        <v>7</v>
-      </c>
-      <c r="E137" s="1">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>19</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -3009,13 +3002,13 @@
         <v>2021</v>
       </c>
       <c r="C138">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E138" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -3028,13 +3021,13 @@
         <v>2021</v>
       </c>
       <c r="C139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E139">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -3047,13 +3040,13 @@
         <v>2021</v>
       </c>
       <c r="C140">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E140">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -3066,10 +3059,10 @@
         <v>2021</v>
       </c>
       <c r="C141">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E141">
         <v>17</v>
@@ -3085,12 +3078,12 @@
         <v>2021</v>
       </c>
       <c r="C142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D142">
-        <v>12</v>
-      </c>
-      <c r="E142" s="1">
+        <v>15</v>
+      </c>
+      <c r="E142">
         <v>15</v>
       </c>
       <c r="F142" s="1"/>
@@ -3104,13 +3097,13 @@
         <v>2021</v>
       </c>
       <c r="C143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E143">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -3123,13 +3116,13 @@
         <v>2021</v>
       </c>
       <c r="C144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -3145,10 +3138,10 @@
         <v>8</v>
       </c>
       <c r="D145">
-        <v>15</v>
-      </c>
-      <c r="E145">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="E145" s="1">
+        <v>2</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -3164,10 +3157,10 @@
         <v>8</v>
       </c>
       <c r="D146">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E146" s="1">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -3183,10 +3176,10 @@
         <v>8</v>
       </c>
       <c r="D147">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -3199,13 +3192,13 @@
         <v>2021</v>
       </c>
       <c r="C148">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D148">
-        <v>7</v>
-      </c>
-      <c r="E148" s="1">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E148">
+        <v>20</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -3218,13 +3211,13 @@
         <v>2021</v>
       </c>
       <c r="C149">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D149">
-        <v>8</v>
-      </c>
-      <c r="E149" s="1">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="E149">
+        <v>17</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -3237,13 +3230,13 @@
         <v>2021</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D150">
-        <v>9</v>
-      </c>
-      <c r="E150">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="E150" s="1">
+        <v>15</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -3256,13 +3249,13 @@
         <v>2021</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E151">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -3275,13 +3268,13 @@
         <v>2021</v>
       </c>
       <c r="C152">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E152">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -3294,13 +3287,13 @@
         <v>2021</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D153">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E153">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -3313,13 +3306,13 @@
         <v>2021</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D154">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E154" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -3332,13 +3325,13 @@
         <v>2021</v>
       </c>
       <c r="C155">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E155">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -3354,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="D156">
-        <v>15</v>
-      </c>
-      <c r="E156">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E156" s="1">
+        <v>9</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -3373,10 +3366,10 @@
         <v>9</v>
       </c>
       <c r="D157">
-        <v>16</v>
-      </c>
-      <c r="E157">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E157" s="1">
+        <v>34</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -3392,10 +3385,10 @@
         <v>9</v>
       </c>
       <c r="D158">
-        <v>17</v>
-      </c>
-      <c r="E158" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>23</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -3408,13 +3401,13 @@
         <v>2021</v>
       </c>
       <c r="C159">
+        <v>9</v>
+      </c>
+      <c r="D159">
         <v>10</v>
       </c>
-      <c r="D159">
-        <v>7</v>
-      </c>
       <c r="E159">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -3427,13 +3420,13 @@
         <v>2021</v>
       </c>
       <c r="C160">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D160">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -3446,13 +3439,13 @@
         <v>2021</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D161">
-        <v>9</v>
-      </c>
-      <c r="E161" s="1">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>16</v>
       </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -3465,13 +3458,13 @@
         <v>2021</v>
       </c>
       <c r="C162">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162">
-        <v>10</v>
-      </c>
-      <c r="E162">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E162" s="1">
+        <v>15</v>
       </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -3484,10 +3477,10 @@
         <v>2021</v>
       </c>
       <c r="C163">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D163">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E163">
         <v>18</v>
@@ -3503,13 +3496,13 @@
         <v>2021</v>
       </c>
       <c r="C164">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D164">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E164">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -3522,13 +3515,13 @@
         <v>2021</v>
       </c>
       <c r="C165">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D165">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -3541,13 +3534,13 @@
         <v>2021</v>
       </c>
       <c r="C166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D166">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E166" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -3563,10 +3556,10 @@
         <v>10</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E167">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -3582,10 +3575,10 @@
         <v>10</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -3601,10 +3594,10 @@
         <v>10</v>
       </c>
       <c r="D169">
-        <v>17</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E169" s="1">
+        <v>21</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -3617,15 +3610,16 @@
         <v>2021</v>
       </c>
       <c r="C170">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
@@ -3635,13 +3629,13 @@
         <v>2021</v>
       </c>
       <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171">
         <v>11</v>
       </c>
-      <c r="D171">
-        <v>8</v>
-      </c>
       <c r="E171">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -3654,13 +3648,13 @@
         <v>2021</v>
       </c>
       <c r="C172">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D172">
-        <v>9</v>
-      </c>
-      <c r="E172" s="1">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="E172">
+        <v>15</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -3673,13 +3667,13 @@
         <v>2021</v>
       </c>
       <c r="C173">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E173">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -3692,13 +3686,13 @@
         <v>2021</v>
       </c>
       <c r="C174">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D174">
-        <v>11</v>
-      </c>
-      <c r="E174">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E174" s="1">
+        <v>19</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -3711,13 +3705,13 @@
         <v>2021</v>
       </c>
       <c r="C175">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D175">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E175">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -3730,13 +3724,13 @@
         <v>2021</v>
       </c>
       <c r="C176">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D176">
-        <v>13</v>
-      </c>
-      <c r="E176" s="1">
         <v>16</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
       </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -3749,13 +3743,13 @@
         <v>2021</v>
       </c>
       <c r="C177">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D177">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E177">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -3771,13 +3765,12 @@
         <v>11</v>
       </c>
       <c r="D178">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E178">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
@@ -3790,11 +3783,12 @@
         <v>11</v>
       </c>
       <c r="D179">
-        <v>16</v>
-      </c>
-      <c r="E179" s="1">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <v>30</v>
+      </c>
+      <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
@@ -3805,13 +3799,13 @@
         <v>2021</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D180">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E180" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -3824,13 +3818,13 @@
         <v>2021</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D181">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -3843,14 +3837,15 @@
         <v>2021</v>
       </c>
       <c r="C182">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
@@ -3861,14 +3856,15 @@
         <v>2021</v>
       </c>
       <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183">
         <v>12</v>
       </c>
-      <c r="D183">
-        <v>10</v>
-      </c>
       <c r="E183">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
@@ -3879,13 +3875,13 @@
         <v>2021</v>
       </c>
       <c r="C184">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D184">
-        <v>11</v>
-      </c>
-      <c r="E184">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E184" s="1">
+        <v>16</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -3898,13 +3894,13 @@
         <v>2021</v>
       </c>
       <c r="C185">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D185">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E185">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -3917,13 +3913,13 @@
         <v>2021</v>
       </c>
       <c r="C186">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D186">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E186">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -3936,15 +3932,15 @@
         <v>2021</v>
       </c>
       <c r="C187">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187">
-        <v>14</v>
-      </c>
-      <c r="E187">
-        <v>13</v>
-      </c>
-      <c r="F187" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E187" s="1">
+        <v>2</v>
+      </c>
+      <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
@@ -3954,13 +3950,13 @@
         <v>2021</v>
       </c>
       <c r="C188">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D188">
-        <v>15</v>
-      </c>
-      <c r="E188">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0</v>
       </c>
       <c r="G188" s="1"/>
     </row>
@@ -3975,11 +3971,12 @@
         <v>12</v>
       </c>
       <c r="D189">
-        <v>16</v>
-      </c>
-      <c r="E189">
+        <v>7</v>
+      </c>
+      <c r="E189" s="1">
         <v>1</v>
       </c>
+      <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
@@ -3987,35 +3984,36 @@
         <v>4</v>
       </c>
       <c r="B190">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>1</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>4</v>
       </c>
       <c r="B191">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D191">
-        <v>8</v>
-      </c>
-      <c r="E191" s="1">
-        <v>26</v>
-      </c>
-      <c r="F191" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E191">
+        <v>20</v>
+      </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
@@ -4023,16 +4021,16 @@
         <v>4</v>
       </c>
       <c r="B192">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D192">
-        <v>9</v>
-      </c>
-      <c r="E192" s="1">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E192">
+        <v>19</v>
       </c>
       <c r="G192" s="1"/>
     </row>
@@ -4041,16 +4039,16 @@
         <v>4</v>
       </c>
       <c r="B193">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -4060,33 +4058,35 @@
         <v>4</v>
       </c>
       <c r="B194">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>4</v>
       </c>
       <c r="B195">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D195">
+        <v>13</v>
+      </c>
+      <c r="E195">
         <v>12</v>
-      </c>
-      <c r="E195">
-        <v>14</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -4096,37 +4096,35 @@
         <v>4</v>
       </c>
       <c r="B196">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D196">
+        <v>14</v>
+      </c>
+      <c r="E196">
         <v>13</v>
       </c>
-      <c r="E196">
-        <v>12</v>
-      </c>
       <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>4</v>
       </c>
       <c r="B197">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D197">
+        <v>15</v>
+      </c>
+      <c r="E197">
         <v>14</v>
       </c>
-      <c r="E197">
-        <v>21</v>
-      </c>
-      <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -4134,16 +4132,16 @@
         <v>4</v>
       </c>
       <c r="B198">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C198">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>16</v>
+      </c>
+      <c r="E198">
         <v>1</v>
-      </c>
-      <c r="D198">
-        <v>15</v>
-      </c>
-      <c r="E198">
-        <v>17</v>
       </c>
       <c r="G198" s="1"/>
     </row>
@@ -4152,18 +4150,17 @@
         <v>4</v>
       </c>
       <c r="B199">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D199">
-        <v>16</v>
-      </c>
-      <c r="E199" s="1">
-        <v>1</v>
-      </c>
-      <c r="F199" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -4174,16 +4171,14 @@
         <v>2022</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
         <v>7</v>
       </c>
       <c r="E200">
-        <v>3</v>
-      </c>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
@@ -4193,13 +4188,13 @@
         <v>2022</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>8</v>
       </c>
-      <c r="E201">
-        <v>24</v>
+      <c r="E201" s="1">
+        <v>26</v>
       </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -4212,15 +4207,14 @@
         <v>2022</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
         <v>9</v>
       </c>
-      <c r="E202">
-        <v>23</v>
-      </c>
-      <c r="F202" s="1"/>
+      <c r="E202" s="1">
+        <v>18</v>
+      </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -4231,13 +4225,13 @@
         <v>2022</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
         <v>10</v>
       </c>
       <c r="E203">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -4250,16 +4244,14 @@
         <v>2022</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
         <v>11</v>
       </c>
-      <c r="E204" s="1">
-        <v>18</v>
-      </c>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
+      <c r="E204">
+        <v>17</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
@@ -4269,12 +4261,12 @@
         <v>2022</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205">
         <v>12</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205">
         <v>14</v>
       </c>
       <c r="F205" s="1"/>
@@ -4288,13 +4280,13 @@
         <v>2022</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
         <v>13</v>
       </c>
-      <c r="E206" s="1">
-        <v>15</v>
+      <c r="E206">
+        <v>12</v>
       </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -4307,13 +4299,13 @@
         <v>2022</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
         <v>14</v>
       </c>
       <c r="E207">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -4326,15 +4318,15 @@
         <v>2022</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
         <v>15</v>
       </c>
-      <c r="E208" s="1">
-        <v>19</v>
-      </c>
-      <c r="F208" s="1"/>
+      <c r="E208">
+        <v>17</v>
+      </c>
+      <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
@@ -4344,7 +4336,7 @@
         <v>2022</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
         <v>16</v>
@@ -4363,13 +4355,13 @@
         <v>2022</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E210" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
@@ -4382,13 +4374,13 @@
         <v>2022</v>
       </c>
       <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>7</v>
+      </c>
+      <c r="E211">
         <v>3</v>
-      </c>
-      <c r="D211">
-        <v>8</v>
-      </c>
-      <c r="E211">
-        <v>25</v>
       </c>
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
@@ -4401,13 +4393,13 @@
         <v>2022</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
@@ -4420,13 +4412,13 @@
         <v>2022</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
@@ -4439,13 +4431,13 @@
         <v>2022</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
@@ -4458,13 +4450,13 @@
         <v>2022</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>12</v>
-      </c>
-      <c r="E215">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E215" s="1">
+        <v>18</v>
       </c>
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
@@ -4477,10 +4469,10 @@
         <v>2022</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E216" s="1">
         <v>14</v>
@@ -4496,13 +4488,13 @@
         <v>2022</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E217" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -4515,13 +4507,13 @@
         <v>2022</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218">
-        <v>15</v>
-      </c>
-      <c r="E218" s="1">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="E218">
+        <v>17</v>
       </c>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
@@ -4534,16 +4526,15 @@
         <v>2022</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>16</v>
-      </c>
-      <c r="E219">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="E219" s="1">
+        <v>19</v>
       </c>
       <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
@@ -4553,10 +4544,10 @@
         <v>2022</v>
       </c>
       <c r="C220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E220" s="1">
         <v>1</v>
@@ -4572,13 +4563,13 @@
         <v>2022</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E221" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
@@ -4591,13 +4582,13 @@
         <v>2022</v>
       </c>
       <c r="C222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <v>9</v>
-      </c>
-      <c r="E222">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E222" s="1">
+        <v>3</v>
       </c>
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
@@ -4610,13 +4601,13 @@
         <v>2022</v>
       </c>
       <c r="C223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
@@ -4629,13 +4620,13 @@
         <v>2022</v>
       </c>
       <c r="C224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D224">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E224">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
@@ -4648,13 +4639,13 @@
         <v>2022</v>
       </c>
       <c r="C225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
@@ -4667,13 +4658,13 @@
         <v>2022</v>
       </c>
       <c r="C226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E226">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
@@ -4686,13 +4677,13 @@
         <v>2022</v>
       </c>
       <c r="C227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D227">
+        <v>12</v>
+      </c>
+      <c r="E227">
         <v>14</v>
-      </c>
-      <c r="E227">
-        <v>17</v>
       </c>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
@@ -4705,13 +4696,13 @@
         <v>2022</v>
       </c>
       <c r="C228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E228" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
@@ -4724,13 +4715,13 @@
         <v>2022</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E229" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
@@ -4743,13 +4734,13 @@
         <v>2022</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <v>7</v>
-      </c>
-      <c r="E230">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E230" s="1">
+        <v>19</v>
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -4762,13 +4753,13 @@
         <v>2022</v>
       </c>
       <c r="C231">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E231">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
@@ -4781,13 +4772,13 @@
         <v>2022</v>
       </c>
       <c r="C232">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E232" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
@@ -4800,13 +4791,13 @@
         <v>2022</v>
       </c>
       <c r="C233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D233">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E233" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
@@ -4819,13 +4810,13 @@
         <v>2022</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D234">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E234" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
@@ -4838,13 +4829,13 @@
         <v>2022</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D235">
-        <v>12</v>
-      </c>
-      <c r="E235" s="1">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E235">
+        <v>20</v>
       </c>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
@@ -4857,13 +4848,13 @@
         <v>2022</v>
       </c>
       <c r="C236">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D236">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E236">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
@@ -4876,10 +4867,10 @@
         <v>2022</v>
       </c>
       <c r="C237">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D237">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E237">
         <v>17</v>
@@ -4895,13 +4886,13 @@
         <v>2022</v>
       </c>
       <c r="C238">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D238">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E238">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
@@ -4914,13 +4905,13 @@
         <v>2022</v>
       </c>
       <c r="C239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D239">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
@@ -4933,13 +4924,13 @@
         <v>2022</v>
       </c>
       <c r="C240">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D240">
-        <v>7</v>
-      </c>
-      <c r="E240" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="E240">
+        <v>17</v>
       </c>
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
@@ -4952,13 +4943,13 @@
         <v>2022</v>
       </c>
       <c r="C241">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E241" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
@@ -4971,13 +4962,13 @@
         <v>2022</v>
       </c>
       <c r="C242">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D242">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E242" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
@@ -4990,13 +4981,13 @@
         <v>2022</v>
       </c>
       <c r="C243">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D243">
-        <v>10</v>
-      </c>
-      <c r="E243">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E243" s="1">
+        <v>0</v>
       </c>
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
@@ -5009,13 +5000,13 @@
         <v>2022</v>
       </c>
       <c r="C244">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D244">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E244">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
@@ -5028,13 +5019,13 @@
         <v>2022</v>
       </c>
       <c r="C245">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D245">
-        <v>12</v>
-      </c>
-      <c r="E245" s="1">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E245">
+        <v>28</v>
       </c>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
@@ -5047,13 +5038,13 @@
         <v>2022</v>
       </c>
       <c r="C246">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D246">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E246" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
@@ -5066,13 +5057,13 @@
         <v>2022</v>
       </c>
       <c r="C247">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D247">
-        <v>14</v>
-      </c>
-      <c r="E247">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E247" s="1">
+        <v>17</v>
       </c>
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
@@ -5085,13 +5076,13 @@
         <v>2022</v>
       </c>
       <c r="C248">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D248">
-        <v>15</v>
-      </c>
-      <c r="E248">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="E248" s="1">
+        <v>17</v>
       </c>
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
@@ -5104,13 +5095,13 @@
         <v>2022</v>
       </c>
       <c r="C249">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D249">
-        <v>16</v>
-      </c>
-      <c r="E249">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="E249" s="1">
+        <v>15</v>
       </c>
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
@@ -5123,13 +5114,13 @@
         <v>2022</v>
       </c>
       <c r="C250">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D250">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E250">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -5142,13 +5133,13 @@
         <v>2022</v>
       </c>
       <c r="C251">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D251">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
@@ -5161,13 +5152,13 @@
         <v>2022</v>
       </c>
       <c r="C252">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D252">
-        <v>9</v>
-      </c>
-      <c r="E252" s="1">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E252">
+        <v>18</v>
       </c>
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
@@ -5180,13 +5171,13 @@
         <v>2022</v>
       </c>
       <c r="C253">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D253">
-        <v>10</v>
-      </c>
-      <c r="E253" s="1">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
       </c>
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
@@ -5199,13 +5190,13 @@
         <v>2022</v>
       </c>
       <c r="C254">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D254">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E254">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
@@ -5218,13 +5209,13 @@
         <v>2022</v>
       </c>
       <c r="C255">
+        <v>6</v>
+      </c>
+      <c r="D255">
         <v>7</v>
       </c>
-      <c r="D255">
-        <v>12</v>
-      </c>
-      <c r="E255">
-        <v>12</v>
+      <c r="E255" s="1">
+        <v>1</v>
       </c>
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
@@ -5237,15 +5228,16 @@
         <v>2022</v>
       </c>
       <c r="C256">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D256">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E256" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
@@ -5255,13 +5247,13 @@
         <v>2022</v>
       </c>
       <c r="C257">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D257">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E257" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
@@ -5274,13 +5266,13 @@
         <v>2022</v>
       </c>
       <c r="C258">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D258">
-        <v>15</v>
-      </c>
-      <c r="E258" s="1">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E258">
+        <v>20</v>
       </c>
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
@@ -5293,13 +5285,13 @@
         <v>2022</v>
       </c>
       <c r="C259">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D259">
+        <v>11</v>
+      </c>
+      <c r="E259">
         <v>16</v>
-      </c>
-      <c r="E259">
-        <v>3</v>
       </c>
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
@@ -5312,13 +5304,13 @@
         <v>2022</v>
       </c>
       <c r="C260">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D260">
-        <v>7</v>
-      </c>
-      <c r="E260">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="E260" s="1">
+        <v>15</v>
       </c>
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
@@ -5331,13 +5323,13 @@
         <v>2022</v>
       </c>
       <c r="C261">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D261">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E261" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
@@ -5350,13 +5342,13 @@
         <v>2022</v>
       </c>
       <c r="C262">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D262">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E262">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
@@ -5369,13 +5361,13 @@
         <v>2022</v>
       </c>
       <c r="C263">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D263">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E263">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
@@ -5388,13 +5380,13 @@
         <v>2022</v>
       </c>
       <c r="C264">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D264">
-        <v>11</v>
-      </c>
-      <c r="E264" s="1">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E264">
+        <v>2</v>
       </c>
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
@@ -5407,13 +5399,13 @@
         <v>2022</v>
       </c>
       <c r="C265">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D265">
-        <v>12</v>
-      </c>
-      <c r="E265" s="1">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
       </c>
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
@@ -5426,13 +5418,13 @@
         <v>2022</v>
       </c>
       <c r="C266">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D266">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
@@ -5445,13 +5437,13 @@
         <v>2022</v>
       </c>
       <c r="C267">
+        <v>7</v>
+      </c>
+      <c r="D267">
         <v>8</v>
       </c>
-      <c r="D267">
-        <v>14</v>
-      </c>
       <c r="E267">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
@@ -5464,13 +5456,13 @@
         <v>2022</v>
       </c>
       <c r="C268">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D268">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E268" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
@@ -5483,13 +5475,13 @@
         <v>2022</v>
       </c>
       <c r="C269">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D269">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E269" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
@@ -5502,13 +5494,13 @@
         <v>2022</v>
       </c>
       <c r="C270">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D270">
-        <v>17</v>
-      </c>
-      <c r="E270" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="E270">
+        <v>13</v>
       </c>
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
@@ -5521,13 +5513,13 @@
         <v>2022</v>
       </c>
       <c r="C271">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D271">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
@@ -5540,16 +5532,15 @@
         <v>2022</v>
       </c>
       <c r="C272">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D272">
-        <v>8</v>
-      </c>
-      <c r="E272">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="E272" s="1">
+        <v>11</v>
       </c>
       <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
@@ -5559,13 +5550,13 @@
         <v>2022</v>
       </c>
       <c r="C273">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D273">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E273" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
@@ -5578,13 +5569,13 @@
         <v>2022</v>
       </c>
       <c r="C274">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D274">
-        <v>10</v>
-      </c>
-      <c r="E274">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="E274" s="1">
+        <v>18</v>
       </c>
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
@@ -5597,13 +5588,13 @@
         <v>2022</v>
       </c>
       <c r="C275">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D275">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E275">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
@@ -5616,13 +5607,13 @@
         <v>2022</v>
       </c>
       <c r="C276">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D276">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E276" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
@@ -5635,13 +5626,13 @@
         <v>2022</v>
       </c>
       <c r="C277">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D277">
-        <v>13</v>
-      </c>
-      <c r="E277" s="1">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
       </c>
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
@@ -5654,13 +5645,13 @@
         <v>2022</v>
       </c>
       <c r="C278">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D278">
-        <v>14</v>
-      </c>
-      <c r="E278">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E278" s="1">
+        <v>22</v>
       </c>
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
@@ -5673,13 +5664,13 @@
         <v>2022</v>
       </c>
       <c r="C279">
+        <v>8</v>
+      </c>
+      <c r="D279">
         <v>9</v>
       </c>
-      <c r="D279">
-        <v>15</v>
-      </c>
       <c r="E279">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
@@ -5692,15 +5683,16 @@
         <v>2022</v>
       </c>
       <c r="C280">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D280">
-        <v>16</v>
-      </c>
-      <c r="E280" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E280">
+        <v>17</v>
       </c>
       <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
@@ -5710,13 +5702,13 @@
         <v>2022</v>
       </c>
       <c r="C281">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D281">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E281" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
@@ -5729,13 +5721,13 @@
         <v>2022</v>
       </c>
       <c r="C282">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D282">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E282" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
@@ -5748,13 +5740,13 @@
         <v>2022</v>
       </c>
       <c r="C283">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D283">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E283">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
@@ -5767,13 +5759,13 @@
         <v>2022</v>
       </c>
       <c r="C284">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D284">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E284">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
@@ -5786,13 +5778,13 @@
         <v>2022</v>
       </c>
       <c r="C285">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D285">
-        <v>11</v>
-      </c>
-      <c r="E285">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E285" s="1">
+        <v>19</v>
       </c>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
@@ -5805,13 +5797,13 @@
         <v>2022</v>
       </c>
       <c r="C286">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D286">
-        <v>12</v>
-      </c>
-      <c r="E286">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E286" s="1">
+        <v>2</v>
       </c>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
@@ -5824,13 +5816,13 @@
         <v>2022</v>
       </c>
       <c r="C287">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D287">
-        <v>13</v>
-      </c>
-      <c r="E287">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E287" s="1">
+        <v>1</v>
       </c>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
@@ -5843,13 +5835,13 @@
         <v>2022</v>
       </c>
       <c r="C288">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D288">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E288">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -5862,13 +5854,13 @@
         <v>2022</v>
       </c>
       <c r="C289">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D289">
-        <v>15</v>
-      </c>
-      <c r="E289" s="1">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E289">
+        <v>24</v>
       </c>
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -5881,13 +5873,13 @@
         <v>2022</v>
       </c>
       <c r="C290">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D290">
-        <v>16</v>
-      </c>
-      <c r="E290">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E290" s="1">
+        <v>18</v>
       </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
@@ -5900,13 +5892,13 @@
         <v>2022</v>
       </c>
       <c r="C291">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D291">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E291">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -5919,13 +5911,13 @@
         <v>2022</v>
       </c>
       <c r="C292">
+        <v>9</v>
+      </c>
+      <c r="D292">
         <v>11</v>
       </c>
-      <c r="D292">
-        <v>8</v>
-      </c>
-      <c r="E292" s="1">
-        <v>27</v>
+      <c r="E292">
+        <v>17</v>
       </c>
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
@@ -5938,13 +5930,13 @@
         <v>2022</v>
       </c>
       <c r="C293">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D293">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E293" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
@@ -5957,13 +5949,13 @@
         <v>2022</v>
       </c>
       <c r="C294">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D294">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E294" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
@@ -5976,10 +5968,10 @@
         <v>2022</v>
       </c>
       <c r="C295">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D295">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E295">
         <v>15</v>
@@ -5995,13 +5987,13 @@
         <v>2022</v>
       </c>
       <c r="C296">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D296">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E296">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
@@ -6014,16 +6006,15 @@
         <v>2022</v>
       </c>
       <c r="C297">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D297">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E297" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F297" s="1"/>
-      <c r="G297" s="1"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
@@ -6033,16 +6024,15 @@
         <v>2022</v>
       </c>
       <c r="C298">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D298">
-        <v>14</v>
-      </c>
-      <c r="E298">
         <v>17</v>
       </c>
+      <c r="E298" s="1">
+        <v>0</v>
+      </c>
       <c r="F298" s="1"/>
-      <c r="G298" s="1"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
@@ -6052,13 +6042,13 @@
         <v>2022</v>
       </c>
       <c r="C299">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D299">
-        <v>15</v>
-      </c>
-      <c r="E299">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E299" s="1">
+        <v>4</v>
       </c>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
@@ -6071,13 +6061,13 @@
         <v>2022</v>
       </c>
       <c r="C300">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D300">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E300" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
@@ -6090,13 +6080,13 @@
         <v>2022</v>
       </c>
       <c r="C301">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D301">
+        <v>9</v>
+      </c>
+      <c r="E301">
         <v>17</v>
-      </c>
-      <c r="E301" s="1">
-        <v>3</v>
       </c>
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
@@ -6109,13 +6099,13 @@
         <v>2022</v>
       </c>
       <c r="C302">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D302">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E302">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F302" s="1"/>
       <c r="G302" s="1"/>
@@ -6128,13 +6118,13 @@
         <v>2022</v>
       </c>
       <c r="C303">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D303">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E303">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
@@ -6147,13 +6137,13 @@
         <v>2022</v>
       </c>
       <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304">
         <v>12</v>
       </c>
-      <c r="D304">
-        <v>9</v>
-      </c>
       <c r="E304">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F304" s="1"/>
       <c r="G304" s="1"/>
@@ -6166,13 +6156,13 @@
         <v>2022</v>
       </c>
       <c r="C305">
+        <v>10</v>
+      </c>
+      <c r="D305">
+        <v>13</v>
+      </c>
+      <c r="E305">
         <v>12</v>
-      </c>
-      <c r="D305">
-        <v>10</v>
-      </c>
-      <c r="E305" s="1">
-        <v>19</v>
       </c>
       <c r="F305" s="1"/>
       <c r="G305" s="1"/>
@@ -6185,13 +6175,13 @@
         <v>2022</v>
       </c>
       <c r="C306">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D306">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E306">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
@@ -6204,14 +6194,15 @@
         <v>2022</v>
       </c>
       <c r="C307">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D307">
-        <v>12</v>
-      </c>
-      <c r="E307">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E307" s="1">
+        <v>16</v>
+      </c>
+      <c r="F307" s="1"/>
       <c r="G307" s="1"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
@@ -6222,13 +6213,13 @@
         <v>2022</v>
       </c>
       <c r="C308">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D308">
-        <v>13</v>
-      </c>
-      <c r="E308" s="1">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -6241,14 +6232,15 @@
         <v>2022</v>
       </c>
       <c r="C309">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D309">
-        <v>14</v>
-      </c>
-      <c r="E309" s="1">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309" s="1"/>
       <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
@@ -6259,13 +6251,13 @@
         <v>2022</v>
       </c>
       <c r="C310">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D310">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E310">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F310" s="1"/>
       <c r="G310" s="1"/>
@@ -6278,13 +6270,13 @@
         <v>2022</v>
       </c>
       <c r="C311">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D311">
-        <v>16</v>
-      </c>
-      <c r="E311">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="E311" s="1">
+        <v>27</v>
       </c>
       <c r="F311" s="1"/>
       <c r="G311" s="1"/>
@@ -6294,16 +6286,16 @@
         <v>4</v>
       </c>
       <c r="B312">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D312">
-        <v>7</v>
-      </c>
-      <c r="E312">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E312" s="1">
+        <v>20</v>
       </c>
       <c r="F312" s="1"/>
       <c r="G312" s="1"/>
@@ -6313,16 +6305,16 @@
         <v>4</v>
       </c>
       <c r="B313">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C313">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D313">
-        <v>8</v>
-      </c>
-      <c r="E313">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="E313" s="1">
+        <v>18</v>
       </c>
       <c r="F313" s="1"/>
       <c r="G313" s="1"/>
@@ -6332,17 +6324,18 @@
         <v>4</v>
       </c>
       <c r="B314">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C314">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D314">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E314">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F314" s="1"/>
       <c r="G314" s="1"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.35">
@@ -6350,17 +6343,18 @@
         <v>4</v>
       </c>
       <c r="B315">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C315">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D315">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E315">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F315" s="1"/>
       <c r="G315" s="1"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
@@ -6368,16 +6362,16 @@
         <v>4</v>
       </c>
       <c r="B316">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D316">
-        <v>11</v>
-      </c>
-      <c r="E316">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E316" s="1">
+        <v>13</v>
       </c>
       <c r="F316" s="1"/>
       <c r="G316" s="1"/>
@@ -6387,17 +6381,18 @@
         <v>4</v>
       </c>
       <c r="B317">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D317">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E317">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F317" s="1"/>
       <c r="G317" s="1"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
@@ -6405,17 +6400,18 @@
         <v>4</v>
       </c>
       <c r="B318">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D318">
-        <v>13</v>
-      </c>
-      <c r="E318" s="1">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E318">
+        <v>18</v>
+      </c>
+      <c r="F318" s="1"/>
       <c r="G318" s="1"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
@@ -6423,17 +6419,18 @@
         <v>4</v>
       </c>
       <c r="B319">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D319">
-        <v>14</v>
-      </c>
-      <c r="E319">
         <v>16</v>
       </c>
+      <c r="E319" s="1">
+        <v>2</v>
+      </c>
+      <c r="F319" s="1"/>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
@@ -6441,16 +6438,16 @@
         <v>4</v>
       </c>
       <c r="B320">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D320">
-        <v>15</v>
-      </c>
-      <c r="E320">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E320" s="1">
+        <v>3</v>
       </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
@@ -6460,13 +6457,13 @@
         <v>4</v>
       </c>
       <c r="B321">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D321">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E321">
         <v>2</v>
@@ -6479,16 +6476,16 @@
         <v>4</v>
       </c>
       <c r="B322">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C322">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D322">
-        <v>17</v>
-      </c>
-      <c r="E322" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E322">
+        <v>27</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -6498,16 +6495,16 @@
         <v>4</v>
       </c>
       <c r="B323">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C323">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D323">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E323">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
@@ -6517,16 +6514,16 @@
         <v>4</v>
       </c>
       <c r="B324">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C324">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D324">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E324" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F324" s="1"/>
       <c r="G324" s="1"/>
@@ -6536,16 +6533,16 @@
         <v>4</v>
       </c>
       <c r="B325">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C325">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D325">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E325">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
@@ -6555,18 +6552,17 @@
         <v>4</v>
       </c>
       <c r="B326">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C326">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D326">
-        <v>10</v>
-      </c>
-      <c r="E326" s="1">
-        <v>20</v>
-      </c>
-      <c r="F326" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E326">
+        <v>14</v>
+      </c>
       <c r="G326" s="1"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
@@ -6574,16 +6570,16 @@
         <v>4</v>
       </c>
       <c r="B327">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C327">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D327">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E327" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
@@ -6593,18 +6589,17 @@
         <v>4</v>
       </c>
       <c r="B328">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C328">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D328">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E328" s="1">
-        <v>18</v>
-      </c>
-      <c r="F328" s="1"/>
+        <v>15</v>
+      </c>
       <c r="G328" s="1"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
@@ -6612,16 +6607,16 @@
         <v>4</v>
       </c>
       <c r="B329">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C329">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D329">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E329">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -6631,16 +6626,16 @@
         <v>4</v>
       </c>
       <c r="B330">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C330">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D330">
-        <v>14</v>
-      </c>
-      <c r="E330" s="1">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E330">
+        <v>3</v>
       </c>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -6650,16 +6645,16 @@
         <v>4</v>
       </c>
       <c r="B331">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C331">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D331">
-        <v>15</v>
-      </c>
-      <c r="E331" s="1">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
       </c>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -6672,13 +6667,13 @@
         <v>2023</v>
       </c>
       <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>7</v>
+      </c>
+      <c r="E332">
         <v>2</v>
-      </c>
-      <c r="D332">
-        <v>16</v>
-      </c>
-      <c r="E332" s="1">
-        <v>3</v>
       </c>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -6691,13 +6686,13 @@
         <v>2023</v>
       </c>
       <c r="C333">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D333">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E333">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -6710,15 +6705,14 @@
         <v>2023</v>
       </c>
       <c r="C334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D334">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E334">
-        <v>1</v>
-      </c>
-      <c r="F334" s="1"/>
+        <v>20</v>
+      </c>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
@@ -6729,15 +6723,14 @@
         <v>2023</v>
       </c>
       <c r="C335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D335">
-        <v>8</v>
-      </c>
-      <c r="E335" s="1">
-        <v>36</v>
-      </c>
-      <c r="F335" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E335">
+        <v>18</v>
+      </c>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
@@ -6748,13 +6741,13 @@
         <v>2023</v>
       </c>
       <c r="C336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D336">
-        <v>9</v>
-      </c>
-      <c r="E336" s="1">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="E336">
+        <v>17</v>
       </c>
       <c r="F336" s="1"/>
       <c r="G336" s="1"/>
@@ -6767,15 +6760,14 @@
         <v>2023</v>
       </c>
       <c r="C337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E337">
-        <v>24</v>
-      </c>
-      <c r="F337" s="1"/>
+        <v>14</v>
+      </c>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
@@ -6786,15 +6778,14 @@
         <v>2023</v>
       </c>
       <c r="C338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D338">
-        <v>11</v>
-      </c>
-      <c r="E338">
-        <v>20</v>
-      </c>
-      <c r="F338" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E338" s="1">
+        <v>14</v>
+      </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
@@ -6805,15 +6796,14 @@
         <v>2023</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D339">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E339">
-        <v>17</v>
-      </c>
-      <c r="F339" s="1"/>
+        <v>16</v>
+      </c>
       <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.35">
@@ -6824,13 +6814,13 @@
         <v>2023</v>
       </c>
       <c r="C340">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D340">
-        <v>13</v>
-      </c>
-      <c r="E340" s="1">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E340">
+        <v>18</v>
       </c>
       <c r="F340" s="1"/>
       <c r="G340" s="1"/>
@@ -6843,13 +6833,13 @@
         <v>2023</v>
       </c>
       <c r="C341">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D341">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E341">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F341" s="1"/>
       <c r="G341" s="1"/>
@@ -6862,13 +6852,13 @@
         <v>2023</v>
       </c>
       <c r="C342">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D342">
-        <v>15</v>
-      </c>
-      <c r="E342">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="E342" s="1">
+        <v>2</v>
       </c>
       <c r="F342" s="1"/>
       <c r="G342" s="1"/>
@@ -6881,13 +6871,13 @@
         <v>2023</v>
       </c>
       <c r="C343">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D343">
-        <v>16</v>
-      </c>
-      <c r="E343" s="1">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="E343">
+        <v>2</v>
       </c>
       <c r="F343" s="1"/>
       <c r="G343" s="1"/>
@@ -6900,13 +6890,13 @@
         <v>2023</v>
       </c>
       <c r="C344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D344">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E344" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F344" s="1"/>
       <c r="G344" s="1"/>
@@ -6919,13 +6909,13 @@
         <v>2023</v>
       </c>
       <c r="C345">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D345">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E345">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F345" s="1"/>
       <c r="G345" s="1"/>
@@ -6938,13 +6928,13 @@
         <v>2023</v>
       </c>
       <c r="C346">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D346">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E346" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F346" s="1"/>
       <c r="G346" s="1"/>
@@ -6957,13 +6947,13 @@
         <v>2023</v>
       </c>
       <c r="C347">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D347">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E347" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F347" s="1"/>
       <c r="G347" s="1"/>
@@ -6976,13 +6966,13 @@
         <v>2023</v>
       </c>
       <c r="C348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D348">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E348" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -6995,13 +6985,13 @@
         <v>2023</v>
       </c>
       <c r="C349">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D349">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E349">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F349" s="1"/>
       <c r="G349" s="1"/>
@@ -7014,15 +7004,16 @@
         <v>2023</v>
       </c>
       <c r="C350">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D350">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E350" s="1">
         <v>19</v>
       </c>
       <c r="F350" s="1"/>
+      <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
@@ -7032,13 +7023,13 @@
         <v>2023</v>
       </c>
       <c r="C351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D351">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E351" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F351" s="1"/>
       <c r="G351" s="1"/>
@@ -7051,13 +7042,13 @@
         <v>2023</v>
       </c>
       <c r="C352">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D352">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E352" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F352" s="1"/>
       <c r="G352" s="1"/>
@@ -7070,13 +7061,13 @@
         <v>2023</v>
       </c>
       <c r="C353">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D353">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E353">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -7089,13 +7080,13 @@
         <v>2023</v>
       </c>
       <c r="C354">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D354">
-        <v>16</v>
-      </c>
-      <c r="E354" s="1">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
       </c>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
@@ -7108,13 +7099,13 @@
         <v>2023</v>
       </c>
       <c r="C355">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D355">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E355" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F355" s="1"/>
       <c r="G355" s="1"/>
@@ -7127,13 +7118,13 @@
         <v>2023</v>
       </c>
       <c r="C356">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D356">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E356" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
@@ -7146,13 +7137,13 @@
         <v>2023</v>
       </c>
       <c r="C357">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D357">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E357">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F357" s="1"/>
       <c r="G357" s="1"/>
@@ -7165,13 +7156,13 @@
         <v>2023</v>
       </c>
       <c r="C358">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D358">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E358">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F358" s="1"/>
       <c r="G358" s="1"/>
@@ -7184,13 +7175,13 @@
         <v>2023</v>
       </c>
       <c r="C359">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D359">
-        <v>10</v>
-      </c>
-      <c r="E359" s="1">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="E359">
+        <v>17</v>
       </c>
       <c r="F359" s="1"/>
       <c r="G359" s="1"/>
@@ -7203,13 +7194,13 @@
         <v>2023</v>
       </c>
       <c r="C360">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D360">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E360" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F360" s="1"/>
       <c r="G360" s="1"/>
@@ -7222,13 +7213,13 @@
         <v>2023</v>
       </c>
       <c r="C361">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D361">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E361">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F361" s="1"/>
       <c r="G361" s="1"/>
@@ -7241,13 +7232,13 @@
         <v>2023</v>
       </c>
       <c r="C362">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D362">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E362">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F362" s="1"/>
       <c r="G362" s="1"/>
@@ -7260,13 +7251,13 @@
         <v>2023</v>
       </c>
       <c r="C363">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D363">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E363" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F363" s="1"/>
       <c r="G363" s="1"/>
@@ -7279,13 +7270,13 @@
         <v>2023</v>
       </c>
       <c r="C364">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D364">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E364" s="1">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F364" s="1"/>
       <c r="G364" s="1"/>
@@ -7298,13 +7289,13 @@
         <v>2023</v>
       </c>
       <c r="C365">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D365">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E365">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F365" s="1"/>
       <c r="G365" s="1"/>
@@ -7317,13 +7308,13 @@
         <v>2023</v>
       </c>
       <c r="C366">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D366">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E366" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F366" s="1"/>
       <c r="G366" s="1"/>
@@ -7336,13 +7327,13 @@
         <v>2023</v>
       </c>
       <c r="C367">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D367">
-        <v>7</v>
-      </c>
-      <c r="E367">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="E367" s="1">
+        <v>27</v>
       </c>
       <c r="F367" s="1"/>
       <c r="G367" s="1"/>
@@ -7355,13 +7346,13 @@
         <v>2023</v>
       </c>
       <c r="C368">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D368">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E368" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F368" s="1"/>
       <c r="G368" s="1"/>
@@ -7374,13 +7365,13 @@
         <v>2023</v>
       </c>
       <c r="C369">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D369">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E369">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F369" s="1"/>
       <c r="G369" s="1"/>
@@ -7393,16 +7384,15 @@
         <v>2023</v>
       </c>
       <c r="C370">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D370">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E370" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F370" s="1"/>
-      <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
@@ -7412,13 +7402,13 @@
         <v>2023</v>
       </c>
       <c r="C371">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D371">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E371" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
@@ -7431,13 +7421,13 @@
         <v>2023</v>
       </c>
       <c r="C372">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D372">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E372" s="1">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
@@ -7450,13 +7440,13 @@
         <v>2023</v>
       </c>
       <c r="C373">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D373">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E373">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
@@ -7469,13 +7459,13 @@
         <v>2023</v>
       </c>
       <c r="C374">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D374">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E374" s="1">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
@@ -7488,13 +7478,13 @@
         <v>2023</v>
       </c>
       <c r="C375">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D375">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E375" s="1">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
@@ -7507,13 +7497,13 @@
         <v>2023</v>
       </c>
       <c r="C376">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D376">
-        <v>16</v>
-      </c>
-      <c r="E376">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E376" s="1">
+        <v>2</v>
       </c>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
@@ -7526,13 +7516,13 @@
         <v>2023</v>
       </c>
       <c r="C377">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D377">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E377">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
@@ -7545,13 +7535,13 @@
         <v>2023</v>
       </c>
       <c r="C378">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D378">
-        <v>7</v>
-      </c>
-      <c r="E378" s="1">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="E378">
+        <v>34</v>
       </c>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
@@ -7564,13 +7554,13 @@
         <v>2023</v>
       </c>
       <c r="C379">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D379">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E379" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F379" s="1"/>
       <c r="G379" s="1"/>
@@ -7583,13 +7573,13 @@
         <v>2023</v>
       </c>
       <c r="C380">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D380">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E380" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F380" s="1"/>
       <c r="G380" s="1"/>
@@ -7602,13 +7592,13 @@
         <v>2023</v>
       </c>
       <c r="C381">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D381">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E381">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F381" s="1"/>
       <c r="G381" s="1"/>
@@ -7621,13 +7611,13 @@
         <v>2023</v>
       </c>
       <c r="C382">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D382">
-        <v>11</v>
-      </c>
-      <c r="E382" s="1">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E382">
+        <v>28</v>
       </c>
       <c r="F382" s="1"/>
       <c r="G382" s="1"/>
@@ -7640,13 +7630,13 @@
         <v>2023</v>
       </c>
       <c r="C383">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D383">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E383" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F383" s="1"/>
       <c r="G383" s="1"/>
@@ -7659,13 +7649,13 @@
         <v>2023</v>
       </c>
       <c r="C384">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D384">
-        <v>13</v>
-      </c>
-      <c r="E384">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="E384" s="1">
+        <v>31</v>
       </c>
       <c r="F384" s="1"/>
       <c r="G384" s="1"/>
@@ -7678,13 +7668,13 @@
         <v>2023</v>
       </c>
       <c r="C385">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D385">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E385">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F385" s="1"/>
       <c r="G385" s="1"/>
@@ -7697,13 +7687,13 @@
         <v>2023</v>
       </c>
       <c r="C386">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D386">
-        <v>15</v>
-      </c>
-      <c r="E386">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="E386" s="1">
+        <v>6</v>
       </c>
       <c r="F386" s="1"/>
       <c r="G386" s="1"/>
@@ -7716,13 +7706,13 @@
         <v>2023</v>
       </c>
       <c r="C387">
+        <v>6</v>
+      </c>
+      <c r="D387">
         <v>7</v>
       </c>
-      <c r="D387">
-        <v>16</v>
-      </c>
       <c r="E387">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F387" s="1"/>
       <c r="G387" s="1"/>
@@ -7735,13 +7725,13 @@
         <v>2023</v>
       </c>
       <c r="C388">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D388">
-        <v>17</v>
-      </c>
-      <c r="E388">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E388" s="1">
+        <v>41</v>
       </c>
       <c r="F388" s="1"/>
       <c r="G388" s="1"/>
@@ -7754,13 +7744,13 @@
         <v>2023</v>
       </c>
       <c r="C389">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D389">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E389">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
@@ -7773,13 +7763,13 @@
         <v>2023</v>
       </c>
       <c r="C390">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D390">
-        <v>8</v>
-      </c>
-      <c r="E390">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="E390" s="1">
+        <v>38</v>
       </c>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
@@ -7792,13 +7782,13 @@
         <v>2023</v>
       </c>
       <c r="C391">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D391">
-        <v>9</v>
-      </c>
-      <c r="E391">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="E391" s="1">
+        <v>33</v>
       </c>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
@@ -7811,14 +7801,15 @@
         <v>2023</v>
       </c>
       <c r="C392">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D392">
-        <v>10</v>
-      </c>
-      <c r="E392">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E392" s="1">
+        <v>26</v>
+      </c>
+      <c r="F392" s="1"/>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
@@ -7829,13 +7820,13 @@
         <v>2023</v>
       </c>
       <c r="C393">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D393">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E393">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
@@ -7848,14 +7839,15 @@
         <v>2023</v>
       </c>
       <c r="C394">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D394">
-        <v>12</v>
-      </c>
-      <c r="E394">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E394" s="1">
+        <v>29</v>
+      </c>
+      <c r="F394" s="1"/>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
@@ -7866,14 +7858,16 @@
         <v>2023</v>
       </c>
       <c r="C395">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D395">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E395" s="1">
-        <v>17</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F395" s="1"/>
+      <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
@@ -7883,14 +7877,16 @@
         <v>2023</v>
       </c>
       <c r="C396">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D396">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E396">
-        <v>24</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F396" s="1"/>
+      <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
@@ -7900,14 +7896,16 @@
         <v>2023</v>
       </c>
       <c r="C397">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D397">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E397">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F397" s="1"/>
+      <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
@@ -7917,14 +7915,15 @@
         <v>2023</v>
       </c>
       <c r="C398">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D398">
-        <v>16</v>
-      </c>
-      <c r="E398">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E398" s="1">
+        <v>3</v>
+      </c>
+      <c r="F398" s="1"/>
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
@@ -7935,15 +7934,386 @@
         <v>2023</v>
       </c>
       <c r="C399">
+        <v>7</v>
+      </c>
+      <c r="D399">
         <v>8</v>
       </c>
-      <c r="D399">
+      <c r="E399" s="1">
+        <v>38</v>
+      </c>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B400">
+        <v>2023</v>
+      </c>
+      <c r="C400">
+        <v>7</v>
+      </c>
+      <c r="D400">
+        <v>9</v>
+      </c>
+      <c r="E400" s="1">
+        <v>29</v>
+      </c>
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B401">
+        <v>2023</v>
+      </c>
+      <c r="C401">
+        <v>7</v>
+      </c>
+      <c r="D401">
+        <v>10</v>
+      </c>
+      <c r="E401">
+        <v>33</v>
+      </c>
+      <c r="F401" s="1"/>
+      <c r="G401" s="1"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402">
+        <v>2023</v>
+      </c>
+      <c r="C402">
+        <v>7</v>
+      </c>
+      <c r="D402">
+        <v>11</v>
+      </c>
+      <c r="E402" s="1">
+        <v>26</v>
+      </c>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403">
+        <v>2023</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+      <c r="D403">
+        <v>12</v>
+      </c>
+      <c r="E403" s="1">
+        <v>26</v>
+      </c>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B404">
+        <v>2023</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+      <c r="D404">
+        <v>13</v>
+      </c>
+      <c r="E404">
+        <v>24</v>
+      </c>
+      <c r="F404" s="1"/>
+      <c r="G404" s="1"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405">
+        <v>2023</v>
+      </c>
+      <c r="C405">
+        <v>7</v>
+      </c>
+      <c r="D405">
+        <v>14</v>
+      </c>
+      <c r="E405">
+        <v>25</v>
+      </c>
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406">
+        <v>2023</v>
+      </c>
+      <c r="C406">
+        <v>7</v>
+      </c>
+      <c r="D406">
+        <v>15</v>
+      </c>
+      <c r="E406">
+        <v>29</v>
+      </c>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407">
+        <v>2023</v>
+      </c>
+      <c r="C407">
+        <v>7</v>
+      </c>
+      <c r="D407">
+        <v>16</v>
+      </c>
+      <c r="E407">
+        <v>2</v>
+      </c>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408">
+        <v>2023</v>
+      </c>
+      <c r="C408">
+        <v>7</v>
+      </c>
+      <c r="D408">
         <v>17</v>
       </c>
-      <c r="E399">
+      <c r="E408">
         <v>1</v>
       </c>
-      <c r="G399" s="1"/>
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409">
+        <v>2023</v>
+      </c>
+      <c r="C409">
+        <v>8</v>
+      </c>
+      <c r="D409">
+        <v>7</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410">
+        <v>2023</v>
+      </c>
+      <c r="C410">
+        <v>8</v>
+      </c>
+      <c r="D410">
+        <v>8</v>
+      </c>
+      <c r="E410">
+        <v>33</v>
+      </c>
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411">
+        <v>2023</v>
+      </c>
+      <c r="C411">
+        <v>8</v>
+      </c>
+      <c r="D411">
+        <v>9</v>
+      </c>
+      <c r="E411">
+        <v>27</v>
+      </c>
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412">
+        <v>2023</v>
+      </c>
+      <c r="C412">
+        <v>8</v>
+      </c>
+      <c r="D412">
+        <v>10</v>
+      </c>
+      <c r="E412">
+        <v>30</v>
+      </c>
+      <c r="G412" s="1"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413">
+        <v>2023</v>
+      </c>
+      <c r="C413">
+        <v>8</v>
+      </c>
+      <c r="D413">
+        <v>11</v>
+      </c>
+      <c r="E413">
+        <v>24</v>
+      </c>
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B414">
+        <v>2023</v>
+      </c>
+      <c r="C414">
+        <v>8</v>
+      </c>
+      <c r="D414">
+        <v>12</v>
+      </c>
+      <c r="E414">
+        <v>18</v>
+      </c>
+      <c r="G414" s="1"/>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415">
+        <v>2023</v>
+      </c>
+      <c r="C415">
+        <v>8</v>
+      </c>
+      <c r="D415">
+        <v>13</v>
+      </c>
+      <c r="E415" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416">
+        <v>2023</v>
+      </c>
+      <c r="C416">
+        <v>8</v>
+      </c>
+      <c r="D416">
+        <v>14</v>
+      </c>
+      <c r="E416">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417">
+        <v>2023</v>
+      </c>
+      <c r="C417">
+        <v>8</v>
+      </c>
+      <c r="D417">
+        <v>15</v>
+      </c>
+      <c r="E417">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B418">
+        <v>2023</v>
+      </c>
+      <c r="C418">
+        <v>8</v>
+      </c>
+      <c r="D418">
+        <v>16</v>
+      </c>
+      <c r="E418">
+        <v>5</v>
+      </c>
+      <c r="G418" s="1"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419">
+        <v>2023</v>
+      </c>
+      <c r="C419">
+        <v>8</v>
+      </c>
+      <c r="D419">
+        <v>17</v>
+      </c>
+      <c r="E419">
+        <v>1</v>
+      </c>
+      <c r="G419" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bimestre7/Series_de_tiempo/TareaFinal/Arribos_oficina_atencion.xlsx
+++ b/Bimestre7/Series_de_tiempo/TareaFinal/Arribos_oficina_atencion.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://proteccion-my.sharepoint.com/personal/jbejaran_proteccion_com_co/Documents/Universidad Catolica/Universidad/Bimestre7/Bimestre7/Series_de_tiempo/TareaFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{FF73EA5E-3332-42E3-A0FD-5DF926F482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8AE380E-588A-4AA8-8DE5-F33510DACB7E}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{FF73EA5E-3332-42E3-A0FD-5DF926F482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651DBAA5-E244-4DE0-BF17-767F329EE71B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98919B19-5C4E-4798-B246-1E9DD96EDBB7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="14" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="9">
   <si>
     <t>oficina</t>
   </si>
@@ -54,6 +58,15 @@
   </si>
   <si>
     <t>arribos</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de arribos</t>
   </si>
 </sst>
 </file>
@@ -89,9 +102,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +131,6522 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Arribos_oficina_atencion.xlsx]Hoja2!TablaDinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Hoja2!$A$4:$A$47</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="38"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CAMINO REAL</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$4:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55D5-4DE1-BD31-FC9F2DF1F379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1563043151"/>
+        <c:axId val="70423695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1563043151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70423695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70423695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1563043151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$419</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="418"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="General">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="262" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="263" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="265" formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="268" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="269" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="273" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="277" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="278" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="281" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="282" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="286" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="287" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="289" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="290" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="293" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="294" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="299" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="300" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="301" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="302" formatCode="General">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="303" formatCode="General">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="304" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="306" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="307" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="312" formatCode="General">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="313" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="315" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="316" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="319" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="320" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="321" formatCode="General">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="323" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="324" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="327" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="328" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="329" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="331" formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="332" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="333" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="334" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="335" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="337" formatCode="General">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="338" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="339" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="341" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="343" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="347" formatCode="General">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="351" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="352" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="355" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="356" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="357" formatCode="General">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="359" formatCode="General">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="360" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="363" formatCode="General">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="367" formatCode="General">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="371" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="375" formatCode="General">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="376" formatCode="General">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="379" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="380" formatCode="General">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="383" formatCode="General">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="385" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="387" formatCode="General">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="391" formatCode="General">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="394" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="395" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="399" formatCode="General">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="402" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="403" formatCode="General">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="404" formatCode="General">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="405" formatCode="General">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="406" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="407" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="408" formatCode="General">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="409" formatCode="General">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="410" formatCode="General">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="411" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="412" formatCode="General">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="414" formatCode="General">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="415" formatCode="General">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="416" formatCode="General">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="417" formatCode="General">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5CD-4C04-9FEF-BA0E421B2E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="80406655"/>
+        <c:axId val="1560600479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80406655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560600479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1560600479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80406655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A582D591-DF9C-8ADF-52F9-DFDCA12F63BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>155574</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9DE539-8992-D754-0BEC-48B3DB342579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Juan David Bejarano Taborda" refreshedDate="45260.319510416666" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="418" xr:uid="{BB687B63-B853-448B-A246-399020B12383}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E419" sheet="Hoja1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="oficina" numFmtId="0">
+      <sharedItems count="1">
+        <s v="CAMINO REAL"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2020" maxValue="2023" count="4">
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="mes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="12" count="12">
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="hora" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="17"/>
+    </cacheField>
+    <cacheField name="arribos" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="41"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="418">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="13"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="14"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="11"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="14"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="8"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="9"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="14"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="9"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="11"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="13"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="14"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="8"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="9"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="12"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="13"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="14"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="15"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="16"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="11"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="13"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="14"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="15"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="8"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="9"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="10"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="11"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="13"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="14"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="15"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="8"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="9"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="10"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="11"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="12"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="13"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="14"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="15"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="8"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="9"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="12"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="13"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="14"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="15"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="17"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="8"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="9"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="10"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="11"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="12"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="13"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="14"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="15"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="13"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="14"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="13"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="14"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="8"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="9"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="13"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="13"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="14"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="15"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="8"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="9"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="13"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="14"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="15"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="9"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="13"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="15"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="8"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="9"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="10"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="15"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="8"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="13"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="15"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="8"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="9"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="13"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="10"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="8"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="11"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="12"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="14"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="15"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="14"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="7"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="9"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="10"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="11"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="12"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="13"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="14"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="15"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="16"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="8"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="11"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="13"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="14"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="17"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="8"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="9"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="10"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="13"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="14"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="15"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="8"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="10"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="11"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="12"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="14"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="17"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="9"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="11"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="13"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="14"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="15"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="8"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="9"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="10"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="11"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="12"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="13"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="14"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="15"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="16"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="8"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="9"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="10"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="11"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="12"/>
+    <n v="19"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="13"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="14"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="15"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="9"/>
+    <n v="17"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="7"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="8"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="9"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="10"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="11"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="12"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="13"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="14"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="15"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="16"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="10"/>
+    <n v="17"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="8"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="9"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="10"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="11"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="12"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="13"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="14"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="15"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="11"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="12"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="13"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="14"/>
+    <n v="25"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="15"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="16"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="9"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="10"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="11"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="12"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="13"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="14"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="15"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="16"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62B879CA-4A37-4CBF-84AE-2FC6B4997FA4}" name="TablaDinámica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="44">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de arribos" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,11 +6945,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F76037-0A0D-4C7B-8B14-9A58561C9DCC}">
+  <dimension ref="A3:B47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="5">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>10</v>
+      </c>
+      <c r="B22" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>7</v>
+      </c>
+      <c r="B32" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>9</v>
+      </c>
+      <c r="B34" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>2023</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>3</v>
+      </c>
+      <c r="B41" s="5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>5</v>
+      </c>
+      <c r="B43" s="5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>6</v>
+      </c>
+      <c r="B44" s="5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>7</v>
+      </c>
+      <c r="B45" s="5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6010</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893F0B8F-286F-408E-A5AE-0C713931104E}">
   <dimension ref="A1:G419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G419" sqref="G419"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8320,5 +15240,6 @@
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K000000 Clasificación - Confidencial</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>